--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -64,6 +64,9 @@
     <t>这一关的卡牌总数，就是行*列</t>
   </si>
   <si>
+    <t>卡牌的长度</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t>cardCount</t>
+  </si>
+  <si>
+    <t>cardWidth</t>
+  </si>
+  <si>
+    <t>cardHeight</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1035,9 +1044,11 @@
     <col min="3" max="3" width="9.77777777777778" customWidth="1"/>
     <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1076,11 @@
       <c r="I1" t="s">
         <v>0</v>
       </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,37 +1108,46 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1132,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -1152,8 +1175,14 @@
       <c r="I4">
         <v>6</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1161,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -1181,8 +1210,14 @@
       <c r="I5">
         <v>8</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1190,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0.2</v>
@@ -1209,6 +1244,12 @@
       </c>
       <c r="I6">
         <v>12</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>卡牌的长度</t>
+  </si>
+  <si>
+    <t>卡牌的宽度</t>
   </si>
   <si>
     <t>id</t>
@@ -1031,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
@@ -1079,6 +1082,9 @@
       <c r="J1" t="s">
         <v>1</v>
       </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="57.6" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1111,144 +1117,155 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>1001</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1002</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>-5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>-5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>1003</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="K15">
         <v>1.5</v>
       </c>
     </row>

--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>关卡当前的id</t>
+    <t>表的主键</t>
   </si>
   <si>
     <t>当前的关卡</t>
@@ -1037,18 +1037,18 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.6634615384615" customWidth="1"/>
+    <col min="2" max="2" width="12.7788461538462" customWidth="1"/>
+    <col min="3" max="3" width="9.77884615384615" customWidth="1"/>
+    <col min="4" max="4" width="11.3365384615385" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="10.7788461538462" customWidth="1"/>
+    <col min="11" max="11" width="10.4423076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="68" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1285,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1302,7 +1302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1037,18 +1037,18 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6634615384615" customWidth="1"/>
-    <col min="2" max="2" width="12.7788461538462" customWidth="1"/>
-    <col min="3" max="3" width="9.77884615384615" customWidth="1"/>
-    <col min="4" max="4" width="11.3365384615385" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="9.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.7788461538462" customWidth="1"/>
-    <col min="11" max="11" width="10.4423076923077" customWidth="1"/>
+    <col min="10" max="10" width="10.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="68" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1166,7 @@
     <row r="11" s="1" customFormat="1"/>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1285,7 +1285,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1302,7 +1302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -55,10 +55,10 @@
     <t>这一关两张卡牌Y的间距</t>
   </si>
   <si>
-    <t>这一关横向放置的数量</t>
-  </si>
-  <si>
-    <t>这一关纵向放置的数量</t>
+    <t>这一关卡牌的行数</t>
+  </si>
+  <si>
+    <t>这一关卡牌的列数</t>
   </si>
   <si>
     <t>这一关的卡牌总数，就是行*列</t>
@@ -70,6 +70,9 @@
     <t>卡牌的宽度</t>
   </si>
   <si>
+    <t>当前关卡主摄像机的size属性</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>cardHeight</t>
+  </si>
+  <si>
+    <t>camSize</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1051,7 +1057,7 @@
     <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1091,11 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1120,40 +1129,46 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -1164,7 +1179,7 @@
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1172,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-5</v>
+        <v>-1.5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0.2</v>
@@ -1184,10 +1199,10 @@
         <v>0.2</v>
       </c>
       <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1198,8 +1213,11 @@
       <c r="K13">
         <v>1.5</v>
       </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1207,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>-5</v>
+        <v>-1.5</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0.2</v>
@@ -1219,10 +1237,10 @@
         <v>0.2</v>
       </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>4</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -1233,8 +1251,11 @@
       <c r="K14">
         <v>1.5</v>
       </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1242,10 +1263,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>-5</v>
+        <v>-1.5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0.2</v>
@@ -1254,10 +1275,10 @@
         <v>0.2</v>
       </c>
       <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
         <v>4</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
       </c>
       <c r="I15">
         <v>12</v>
@@ -1267,6 +1288,9 @@
       </c>
       <c r="K15">
         <v>1.5</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelData.xlsx
+++ b/Excel/LevelData.xlsx
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1275,13 +1275,13 @@
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1291,6 +1291,44 @@
       </c>
       <c r="L15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>-1.5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
